--- a/Code/Results/Cases/Case_1_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2987191600207524</v>
+        <v>0.101987646160083</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1681977357171434</v>
+        <v>0.2360040478420729</v>
       </c>
       <c r="E2">
-        <v>0.0985954251415464</v>
+        <v>0.1772031883258087</v>
       </c>
       <c r="F2">
-        <v>0.5313692160716244</v>
+        <v>1.08873701812459</v>
       </c>
       <c r="G2">
-        <v>0.279969989547233</v>
+        <v>0.5299960472823386</v>
       </c>
       <c r="H2">
-        <v>0.2568812169177548</v>
+        <v>0.6766214148207723</v>
       </c>
       <c r="I2">
-        <v>0.2313370814894995</v>
+        <v>0.5084381643666029</v>
       </c>
       <c r="J2">
-        <v>0.08351346994304265</v>
+        <v>0.1802673734551092</v>
       </c>
       <c r="K2">
-        <v>1.874914087391318</v>
+        <v>0.5884434309984954</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4971493998658687</v>
+        <v>0.245801753153394</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.080127660153678</v>
+        <v>2.382595943241114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.260361597633846</v>
+        <v>0.0895997974957794</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1529326137956559</v>
+        <v>0.232933034930852</v>
       </c>
       <c r="E3">
-        <v>0.09267185907906139</v>
+        <v>0.1767886261010148</v>
       </c>
       <c r="F3">
-        <v>0.5152222461269389</v>
+        <v>1.093697044940349</v>
       </c>
       <c r="G3">
-        <v>0.2720280659628358</v>
+        <v>0.533496198473685</v>
       </c>
       <c r="H3">
-        <v>0.2589624684774137</v>
+        <v>0.6820436987439322</v>
       </c>
       <c r="I3">
-        <v>0.2468330816340703</v>
+        <v>0.5164622036415363</v>
       </c>
       <c r="J3">
-        <v>0.08136009111545661</v>
+        <v>0.1811333385756768</v>
       </c>
       <c r="K3">
-        <v>1.644451169165194</v>
+        <v>0.5137893058198699</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4327246105265417</v>
+        <v>0.2266639718715311</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.067295268041391</v>
+        <v>2.401113246222081</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2367906083135125</v>
+        <v>0.08197899534256692</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1436830189029621</v>
+        <v>0.2311365634280946</v>
       </c>
       <c r="E4">
-        <v>0.08916141215894768</v>
+        <v>0.176615534805638</v>
       </c>
       <c r="F4">
-        <v>0.5063947862562301</v>
+        <v>1.097359165632206</v>
       </c>
       <c r="G4">
-        <v>0.267926160934735</v>
+        <v>0.5360281235590065</v>
       </c>
       <c r="H4">
-        <v>0.2607316100300565</v>
+        <v>0.6856782435459721</v>
       </c>
       <c r="I4">
-        <v>0.2569090824653846</v>
+        <v>0.5216807868655025</v>
       </c>
       <c r="J4">
-        <v>0.08019512903403125</v>
+        <v>0.1817584496640201</v>
       </c>
       <c r="K4">
-        <v>1.50275916674434</v>
+        <v>0.4677709483270007</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3932197471627603</v>
+        <v>0.2149394817383197</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.062077390885932</v>
+        <v>2.413924629891426</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2271784611228895</v>
+        <v>0.07887001799919346</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1399430033144853</v>
+        <v>0.2304270072126258</v>
       </c>
       <c r="E5">
-        <v>0.08776130612407584</v>
+        <v>0.1765655197898646</v>
       </c>
       <c r="F5">
-        <v>0.503059102678975</v>
+        <v>1.099006636598041</v>
       </c>
       <c r="G5">
-        <v>0.2664399828973885</v>
+        <v>0.5371560968597322</v>
       </c>
       <c r="H5">
-        <v>0.2615719564152457</v>
+        <v>0.6872361539172545</v>
       </c>
       <c r="I5">
-        <v>0.2611528998309334</v>
+        <v>0.5238807821590066</v>
       </c>
       <c r="J5">
-        <v>0.07975833360400841</v>
+        <v>0.1820366874560904</v>
       </c>
       <c r="K5">
-        <v>1.444959977690985</v>
+        <v>0.4489740599635184</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3771298882119112</v>
+        <v>0.2101685842357952</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.060591765115575</v>
+        <v>2.419507844680652</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2255819080376114</v>
+        <v>0.0783535739577701</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1393236955235579</v>
+        <v>0.2303105492105288</v>
       </c>
       <c r="E6">
-        <v>0.08753061719012578</v>
+        <v>0.1765584554168811</v>
       </c>
       <c r="F6">
-        <v>0.5025206805126032</v>
+        <v>1.099289569151317</v>
       </c>
       <c r="G6">
-        <v>0.2662041345568937</v>
+        <v>0.5373492037604848</v>
       </c>
       <c r="H6">
-        <v>0.2617185900792904</v>
+        <v>0.6874994839428439</v>
       </c>
       <c r="I6">
-        <v>0.261865806020976</v>
+        <v>0.5242505219042983</v>
       </c>
       <c r="J6">
-        <v>0.07968804984587763</v>
+        <v>0.1820843083356998</v>
       </c>
       <c r="K6">
-        <v>1.435358607287725</v>
+        <v>0.4458502307928143</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3744585796876478</v>
+        <v>0.2093768088477646</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.060382964977507</v>
+        <v>2.420456824143841</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.236661005438549</v>
+        <v>0.08193708019601331</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1436324634532724</v>
+        <v>0.2311269027802325</v>
       </c>
       <c r="E7">
-        <v>0.08914240845892252</v>
+        <v>0.1766147771439641</v>
       </c>
       <c r="F7">
-        <v>0.5063487560600777</v>
+        <v>1.097380755809837</v>
       </c>
       <c r="G7">
-        <v>0.2679053792969839</v>
+        <v>0.5360429464112215</v>
       </c>
       <c r="H7">
-        <v>0.2607424650748413</v>
+        <v>0.6856989430297773</v>
       </c>
       <c r="I7">
-        <v>0.2569657626664368</v>
+        <v>0.5217101596470166</v>
       </c>
       <c r="J7">
-        <v>0.08018908671935421</v>
+        <v>0.1817621069088879</v>
       </c>
       <c r="K7">
-        <v>1.501979918449422</v>
+        <v>0.4675176234366631</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3930027241776699</v>
+        <v>0.2148751112420157</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.0620547977976</v>
+        <v>2.413998459513053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2854962688185054</v>
+        <v>0.09771948638559991</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1629076742909632</v>
+        <v>0.2349267224631149</v>
       </c>
       <c r="E8">
-        <v>0.09652582058571468</v>
+        <v>0.177043365118152</v>
       </c>
       <c r="F8">
-        <v>0.5255689511110475</v>
+        <v>1.090319289496271</v>
       </c>
       <c r="G8">
-        <v>0.277065108714929</v>
+        <v>0.531123403183706</v>
       </c>
       <c r="H8">
-        <v>0.2574943382334212</v>
+        <v>0.6784276948164916</v>
       </c>
       <c r="I8">
-        <v>0.2365615021409235</v>
+        <v>0.5111442969953099</v>
       </c>
       <c r="J8">
-        <v>0.08273736965990963</v>
+        <v>0.1805465793184098</v>
       </c>
       <c r="K8">
-        <v>1.795481981426548</v>
+        <v>0.5627409124664666</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4749221260322471</v>
+        <v>0.2391978110071165</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.075133165788415</v>
+        <v>2.388681455346102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3812063353771293</v>
+        <v>0.1285439155451229</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2017678176336659</v>
+        <v>0.2430814308972771</v>
       </c>
       <c r="E9">
-        <v>0.1120772386278404</v>
+        <v>0.1785286099629602</v>
       </c>
       <c r="F9">
-        <v>0.5724392652341734</v>
+        <v>1.081362473366376</v>
       </c>
       <c r="G9">
-        <v>0.3016159411558661</v>
+        <v>0.5245172215503402</v>
       </c>
       <c r="H9">
-        <v>0.2552175680961852</v>
+        <v>0.6665886767782041</v>
       </c>
       <c r="I9">
-        <v>0.2011613712183422</v>
+        <v>0.4927393261901347</v>
       </c>
       <c r="J9">
-        <v>0.08905782880056989</v>
+        <v>0.178903624972726</v>
       </c>
       <c r="K9">
-        <v>2.370144636952205</v>
+        <v>0.7479920436711325</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6362007747141902</v>
+        <v>0.2870896399018861</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.123245040112408</v>
+        <v>2.350477450978019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4516410848814303</v>
+        <v>0.1511047983889142</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2310904013710626</v>
+        <v>0.2494968461965499</v>
       </c>
       <c r="E10">
-        <v>0.1242565678779606</v>
+        <v>0.1800112336890436</v>
       </c>
       <c r="F10">
-        <v>0.6132861666915446</v>
+        <v>1.077761828754475</v>
       </c>
       <c r="G10">
-        <v>0.3243195672325072</v>
+        <v>0.521523032960971</v>
       </c>
       <c r="H10">
-        <v>0.2563252122494077</v>
+        <v>0.659363091991807</v>
       </c>
       <c r="I10">
-        <v>0.1781918815468826</v>
+        <v>0.4806271115228782</v>
       </c>
       <c r="J10">
-        <v>0.09461926494493866</v>
+        <v>0.1781476758924256</v>
       </c>
       <c r="K10">
-        <v>2.792722024747377</v>
+        <v>0.8831387843072207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7554167269360903</v>
+        <v>0.3223811823283356</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.174263574318871</v>
+        <v>2.329391053467049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4837450568386998</v>
+        <v>0.1613477719853051</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2446271088421668</v>
+        <v>0.2525065639440385</v>
       </c>
       <c r="E11">
-        <v>0.1299843734349722</v>
+        <v>0.1807703778828014</v>
       </c>
       <c r="F11">
-        <v>0.6334523147158109</v>
+        <v>1.076770613755926</v>
       </c>
       <c r="G11">
-        <v>0.3358140561112322</v>
+        <v>0.5205658519559364</v>
       </c>
       <c r="H11">
-        <v>0.2575000362048883</v>
+        <v>0.65639518387691</v>
       </c>
       <c r="I11">
-        <v>0.1684549736820786</v>
+        <v>0.4754228494086679</v>
       </c>
       <c r="J11">
-        <v>0.09737468942932992</v>
+        <v>0.1779016570752816</v>
       </c>
       <c r="K11">
-        <v>2.985266926195237</v>
+        <v>0.9444020311814825</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8098894155929486</v>
+        <v>0.3384564620741699</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.201340857729974</v>
+        <v>2.32131588675125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4959140965368221</v>
+        <v>0.16522342234002</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.249784087685228</v>
+        <v>0.253659301349856</v>
       </c>
       <c r="E12">
-        <v>0.1321823405759375</v>
+        <v>0.1810699897956063</v>
       </c>
       <c r="F12">
-        <v>0.6413335486114988</v>
+        <v>1.076488224038926</v>
       </c>
       <c r="G12">
-        <v>0.3403480241541672</v>
+        <v>0.520261702497848</v>
       </c>
       <c r="H12">
-        <v>0.2580473777279053</v>
+        <v>0.655317150311987</v>
       </c>
       <c r="I12">
-        <v>0.1648749273849726</v>
+        <v>0.4734960767128662</v>
       </c>
       <c r="J12">
-        <v>0.09845282954486123</v>
+        <v>0.1778225601745547</v>
       </c>
       <c r="K12">
-        <v>3.058242731705633</v>
+        <v>0.9675686362179761</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8305584253057745</v>
+        <v>0.3445464682463424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.212191937137845</v>
+        <v>2.31847629660723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4932926953834738</v>
+        <v>0.1643888754298786</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2486720234586812</v>
+        <v>0.253410461262078</v>
       </c>
       <c r="E13">
-        <v>0.1317076468796579</v>
+        <v>0.1810049236650251</v>
       </c>
       <c r="F13">
-        <v>0.6396250183922376</v>
+        <v>1.076544907829678</v>
       </c>
       <c r="G13">
-        <v>0.339363267259813</v>
+        <v>0.5203246115416533</v>
       </c>
       <c r="H13">
-        <v>0.2579248416266324</v>
+        <v>0.6555472854620348</v>
       </c>
       <c r="I13">
-        <v>0.1656411128242841</v>
+        <v>0.47390908590571</v>
       </c>
       <c r="J13">
-        <v>0.09821905051210678</v>
+        <v>0.1778389696870093</v>
       </c>
       <c r="K13">
-        <v>3.042522967171038</v>
+        <v>0.9625807597520293</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8261050306903854</v>
+        <v>0.34323476463247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.209827705084479</v>
+        <v>2.319078142032396</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4847459538570007</v>
+        <v>0.1616666884790021</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2450507420639809</v>
+        <v>0.2526011399712189</v>
       </c>
       <c r="E14">
-        <v>0.1301646088211328</v>
+        <v>0.180794784039918</v>
       </c>
       <c r="F14">
-        <v>0.6340957029405061</v>
+        <v>1.076745518510954</v>
       </c>
       <c r="G14">
-        <v>0.3361833553059199</v>
+        <v>0.5205396601735117</v>
       </c>
       <c r="H14">
-        <v>0.2575429772297753</v>
+        <v>0.6563055746979103</v>
       </c>
       <c r="I14">
-        <v>0.1681582665487991</v>
+        <v>0.4752634513679697</v>
       </c>
       <c r="J14">
-        <v>0.09746267916302997</v>
+        <v>0.1778948678862022</v>
       </c>
       <c r="K14">
-        <v>2.991269312412925</v>
+        <v>0.9463086204467004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8115889975585446</v>
+        <v>0.3389574396236341</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.202221362497994</v>
+        <v>2.321077896122318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4795124759131966</v>
+        <v>0.1599988537628718</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.242836706095602</v>
+        <v>0.2521071000312105</v>
       </c>
       <c r="E15">
-        <v>0.1292232887155009</v>
+        <v>0.1806676473708428</v>
       </c>
       <c r="F15">
-        <v>0.6307412303620552</v>
+        <v>1.076880503580441</v>
       </c>
       <c r="G15">
-        <v>0.3342595878392274</v>
+        <v>0.5206789805959886</v>
       </c>
       <c r="H15">
-        <v>0.2573226017267274</v>
+        <v>0.656776018740473</v>
       </c>
       <c r="I15">
-        <v>0.1697141890904152</v>
+        <v>0.4760987658174747</v>
       </c>
       <c r="J15">
-        <v>0.09700397204171907</v>
+        <v>0.1779309385986068</v>
       </c>
       <c r="K15">
-        <v>2.959883771271876</v>
+        <v>0.936337195716618</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8027031067348815</v>
+        <v>0.336337788239959</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.197641337264798</v>
+        <v>2.322331236407194</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4495445250267665</v>
+        <v>0.1504349701413474</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2302099336261705</v>
+        <v>0.2493019822771316</v>
       </c>
       <c r="E16">
-        <v>0.123886183212889</v>
+        <v>0.1799633227881579</v>
       </c>
       <c r="F16">
-        <v>0.6120015681293651</v>
+        <v>1.077839617751359</v>
       </c>
       <c r="G16">
-        <v>0.32359298413283</v>
+        <v>0.5215937422673278</v>
       </c>
       <c r="H16">
-        <v>0.2562624385049901</v>
+        <v>0.6595634692613999</v>
       </c>
       <c r="I16">
-        <v>0.1788429370677562</v>
+        <v>0.4809733740998929</v>
       </c>
       <c r="J16">
-        <v>0.09444392200764185</v>
+        <v>0.1781657224422446</v>
       </c>
       <c r="K16">
-        <v>2.780146581256986</v>
+        <v>0.879130623554488</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7518622204623142</v>
+        <v>0.3213310154929943</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.172575319965432</v>
+        <v>2.329949325146202</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4311782743290848</v>
+        <v>0.1445625125328007</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2225161813114056</v>
+        <v>0.2476044439739553</v>
       </c>
       <c r="E17">
-        <v>0.1206614359042248</v>
+        <v>0.1795529069170421</v>
       </c>
       <c r="F17">
-        <v>0.6009229481900888</v>
+        <v>1.078593621236138</v>
       </c>
       <c r="G17">
-        <v>0.3173574862176807</v>
+        <v>0.5222586865331991</v>
       </c>
       <c r="H17">
-        <v>0.2557880455342882</v>
+        <v>0.6613551742229618</v>
       </c>
       <c r="I17">
-        <v>0.184628776696889</v>
+        <v>0.4840420834388661</v>
       </c>
       <c r="J17">
-        <v>0.09293275840428095</v>
+        <v>0.1783348149907411</v>
       </c>
       <c r="K17">
-        <v>2.669976224216725</v>
+        <v>0.843979975019181</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7207393082087918</v>
+        <v>0.3121299562728339</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.15821749144601</v>
+        <v>2.335011450496836</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4206202217993962</v>
+        <v>0.1411829547995609</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2181093905101932</v>
+        <v>0.2466366661318347</v>
       </c>
       <c r="E18">
-        <v>0.1188241539264396</v>
+        <v>0.1793248203832398</v>
       </c>
       <c r="F18">
-        <v>0.5946989065277677</v>
+        <v>1.079088180322692</v>
       </c>
       <c r="G18">
-        <v>0.3138799308563662</v>
+        <v>0.5226792496963242</v>
       </c>
       <c r="H18">
-        <v>0.2555779605559607</v>
+        <v>0.6624157474776169</v>
       </c>
       <c r="I18">
-        <v>0.1880233610867821</v>
+        <v>0.4858358916104653</v>
       </c>
       <c r="J18">
-        <v>0.09208465666596766</v>
+        <v>0.1784412846674712</v>
       </c>
       <c r="K18">
-        <v>2.606637367304359</v>
+        <v>0.8237420363846581</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7028604599556445</v>
+        <v>0.3068397472005486</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.150320773107978</v>
+        <v>2.338065843578704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4170463447042607</v>
+        <v>0.1400383802430269</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2166204226431887</v>
+        <v>0.246310473756651</v>
       </c>
       <c r="E19">
-        <v>0.1182050289172736</v>
+        <v>0.1792489648692488</v>
       </c>
       <c r="F19">
-        <v>0.5926164899291209</v>
+        <v>1.079266086222134</v>
       </c>
       <c r="G19">
-        <v>0.3127208025497694</v>
+        <v>0.5228281868885887</v>
       </c>
       <c r="H19">
-        <v>0.2555174347051334</v>
+        <v>0.6627799982816924</v>
       </c>
       <c r="I19">
-        <v>0.1891840288766273</v>
+        <v>0.4864481846065019</v>
       </c>
       <c r="J19">
-        <v>0.09180105680449913</v>
+        <v>0.1784789159003353</v>
       </c>
       <c r="K19">
-        <v>2.585196229926339</v>
+        <v>0.8168863901321686</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6968106084890522</v>
+        <v>0.3050489275604633</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.147707959211857</v>
+        <v>2.339124529122003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.433132779572631</v>
+        <v>0.1451878416084611</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.22333326711626</v>
+        <v>0.2477842604057798</v>
       </c>
       <c r="E20">
-        <v>0.1210028895116935</v>
+        <v>0.1795957714019281</v>
       </c>
       <c r="F20">
-        <v>0.6020868407999345</v>
+        <v>1.078507056088597</v>
       </c>
       <c r="G20">
-        <v>0.3180098957425912</v>
+        <v>0.5221839577096858</v>
       </c>
       <c r="H20">
-        <v>0.2558320065692925</v>
+        <v>0.6611613361914124</v>
       </c>
       <c r="I20">
-        <v>0.1840059252680328</v>
+        <v>0.4837124366176022</v>
       </c>
       <c r="J20">
-        <v>0.09309142652059421</v>
+        <v>0.1783158614382856</v>
       </c>
       <c r="K20">
-        <v>2.681700998069516</v>
+        <v>0.8477239242322696</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7240500474020877</v>
+        <v>0.3131092207544555</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.159708200258706</v>
+        <v>2.334457799123953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4872559900716738</v>
+        <v>0.162466348045001</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.246113540370601</v>
+        <v>0.2528385046844761</v>
       </c>
       <c r="E21">
-        <v>0.1306170334416592</v>
+        <v>0.1808561779561089</v>
       </c>
       <c r="F21">
-        <v>0.6357130146678927</v>
+        <v>1.076684071640635</v>
       </c>
       <c r="G21">
-        <v>0.3371123413561463</v>
+        <v>0.5204749118236407</v>
       </c>
       <c r="H21">
-        <v>0.2576523097331886</v>
+        <v>0.6560816026808709</v>
       </c>
       <c r="I21">
-        <v>0.167415971691204</v>
+        <v>0.4748644479738582</v>
       </c>
       <c r="J21">
-        <v>0.09768388246254034</v>
+        <v>0.1778780675718323</v>
       </c>
       <c r="K21">
-        <v>3.006321884113959</v>
+        <v>0.9510890345402743</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8158515288498052</v>
+        <v>0.3402137247817905</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.204438972425294</v>
+        <v>2.320484594184904</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5226998635395148</v>
+        <v>0.1737404232650874</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2611832693258265</v>
+        <v>0.2562176010562212</v>
       </c>
       <c r="E22">
-        <v>0.1370703325550586</v>
+        <v>0.1817506727918961</v>
       </c>
       <c r="F22">
-        <v>0.6591248710176032</v>
+        <v>1.076034480506991</v>
       </c>
       <c r="G22">
-        <v>0.3506602857842154</v>
+        <v>0.5196978929992184</v>
       </c>
       <c r="H22">
-        <v>0.2594422612373819</v>
+        <v>0.6530289314921305</v>
       </c>
       <c r="I22">
-        <v>0.1572001682109452</v>
+        <v>0.4693380656440631</v>
       </c>
       <c r="J22">
-        <v>0.1008888654476507</v>
+        <v>0.1776739222752042</v>
       </c>
       <c r="K22">
-        <v>3.21885849034544</v>
+        <v>1.018454260152339</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8760938221388841</v>
+        <v>0.3579433401748418</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.237176842615696</v>
+        <v>2.312624779731863</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5037752654045846</v>
+        <v>0.1677250066802571</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2531227999089225</v>
+        <v>0.2544072086683542</v>
       </c>
       <c r="E23">
-        <v>0.1336098364113631</v>
+        <v>0.1812668033656308</v>
       </c>
       <c r="F23">
-        <v>0.6464923439736054</v>
+        <v>1.07633161447508</v>
       </c>
       <c r="G23">
-        <v>0.3433274996323945</v>
+        <v>0.5200814679955101</v>
       </c>
       <c r="H23">
-        <v>0.2584299277712319</v>
+        <v>0.6546337579433725</v>
       </c>
       <c r="I23">
-        <v>0.1625935662910312</v>
+        <v>0.4722641436590056</v>
       </c>
       <c r="J23">
-        <v>0.09915888539538287</v>
+        <v>0.1777753801040944</v>
       </c>
       <c r="K23">
-        <v>3.105382680408269</v>
+        <v>0.9825180176620449</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8439166204098214</v>
+        <v>0.3484794370807833</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.219369130319279</v>
+        <v>2.316703233694682</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4322491450128325</v>
+        <v>0.1449051409160944</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2229638115725265</v>
+        <v>0.247702939973081</v>
       </c>
       <c r="E24">
-        <v>0.1208484665699352</v>
+        <v>0.1795763678608431</v>
       </c>
       <c r="F24">
-        <v>0.6015601939351143</v>
+        <v>1.078546001953335</v>
       </c>
       <c r="G24">
-        <v>0.3177146081446267</v>
+        <v>0.5222176233853659</v>
       </c>
       <c r="H24">
-        <v>0.2558119370927585</v>
+        <v>0.6612488753631851</v>
       </c>
       <c r="I24">
-        <v>0.1842873042378885</v>
+        <v>0.4838613778510572</v>
       </c>
       <c r="J24">
-        <v>0.09301962840371658</v>
+        <v>0.178324401506984</v>
       </c>
       <c r="K24">
-        <v>2.676400230583084</v>
+        <v>0.8460313761454756</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7225532187109494</v>
+        <v>0.3126664964930299</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.159033139457051</v>
+        <v>2.334707656028229</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3553052358828808</v>
+        <v>0.1202194636876754</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1911290048322485</v>
+        <v>0.2408005497037919</v>
       </c>
       <c r="E25">
-        <v>0.1077453664013817</v>
+        <v>0.1780579548307379</v>
       </c>
       <c r="F25">
-        <v>0.5586954918747011</v>
+        <v>1.083262105690906</v>
       </c>
       <c r="G25">
-        <v>0.2942041172009198</v>
+        <v>0.5259782353922162</v>
       </c>
       <c r="H25">
-        <v>0.2553668771214035</v>
+        <v>0.6695326579336154</v>
       </c>
       <c r="I25">
-        <v>0.2102214754172476</v>
+        <v>0.4974706802011077</v>
       </c>
       <c r="J25">
-        <v>0.08719521645083006</v>
+        <v>0.1792688341540796</v>
       </c>
       <c r="K25">
-        <v>2.214688111561827</v>
+        <v>0.6980409220084312</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5924691541415754</v>
+        <v>0.2741141460097083</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.107627360051438</v>
+        <v>2.359586973511469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.101987646160083</v>
+        <v>0.2987191600207524</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2360040478420729</v>
+        <v>0.1681977357170723</v>
       </c>
       <c r="E2">
-        <v>0.1772031883258087</v>
+        <v>0.09859542514153574</v>
       </c>
       <c r="F2">
-        <v>1.08873701812459</v>
+        <v>0.5313692160716101</v>
       </c>
       <c r="G2">
-        <v>0.5299960472823386</v>
+        <v>0.2799699895472187</v>
       </c>
       <c r="H2">
-        <v>0.6766214148207723</v>
+        <v>0.2568812169177548</v>
       </c>
       <c r="I2">
-        <v>0.5084381643666029</v>
+        <v>0.2313370814895039</v>
       </c>
       <c r="J2">
-        <v>0.1802673734551092</v>
+        <v>0.08351346994304265</v>
       </c>
       <c r="K2">
-        <v>0.5884434309984954</v>
+        <v>1.874914087391346</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.245801753153394</v>
+        <v>0.4971493998658616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.382595943241114</v>
+        <v>1.080127660153735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0895997974957794</v>
+        <v>0.2603615976338745</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.232933034930852</v>
+        <v>0.1529326137957696</v>
       </c>
       <c r="E3">
-        <v>0.1767886261010148</v>
+        <v>0.09267185907906494</v>
       </c>
       <c r="F3">
-        <v>1.093697044940349</v>
+        <v>0.5152222461269247</v>
       </c>
       <c r="G3">
-        <v>0.533496198473685</v>
+        <v>0.2720280659628429</v>
       </c>
       <c r="H3">
-        <v>0.6820436987439322</v>
+        <v>0.2589624684772929</v>
       </c>
       <c r="I3">
-        <v>0.5164622036415363</v>
+        <v>0.2468330816340516</v>
       </c>
       <c r="J3">
-        <v>0.1811333385756768</v>
+        <v>0.08136009111532516</v>
       </c>
       <c r="K3">
-        <v>0.5137893058198699</v>
+        <v>1.644451169165137</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2266639718715311</v>
+        <v>0.4327246105265488</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.401113246222081</v>
+        <v>1.06729526804132</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08197899534256692</v>
+        <v>0.2367906083135267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2311365634280946</v>
+        <v>0.1436830189030189</v>
       </c>
       <c r="E4">
-        <v>0.176615534805638</v>
+        <v>0.08916141215894413</v>
       </c>
       <c r="F4">
-        <v>1.097359165632206</v>
+        <v>0.5063947862562088</v>
       </c>
       <c r="G4">
-        <v>0.5360281235590065</v>
+        <v>0.2679261609347847</v>
       </c>
       <c r="H4">
-        <v>0.6856782435459721</v>
+        <v>0.2607316100300565</v>
       </c>
       <c r="I4">
-        <v>0.5216807868655025</v>
+        <v>0.2569090824653788</v>
       </c>
       <c r="J4">
-        <v>0.1817584496640201</v>
+        <v>0.08019512903417336</v>
       </c>
       <c r="K4">
-        <v>0.4677709483270007</v>
+        <v>1.502759166744198</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2149394817383197</v>
+        <v>0.3932197471627887</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.413924629891426</v>
+        <v>1.062077390885889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07887001799919346</v>
+        <v>0.2271784611229037</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2304270072126258</v>
+        <v>0.1399430033144711</v>
       </c>
       <c r="E5">
-        <v>0.1765655197898646</v>
+        <v>0.08776130612412558</v>
       </c>
       <c r="F5">
-        <v>1.099006636598041</v>
+        <v>0.5030591026790034</v>
       </c>
       <c r="G5">
-        <v>0.5371560968597322</v>
+        <v>0.2664399828973671</v>
       </c>
       <c r="H5">
-        <v>0.6872361539172545</v>
+        <v>0.2615719564152457</v>
       </c>
       <c r="I5">
-        <v>0.5238807821590066</v>
+        <v>0.261152899830932</v>
       </c>
       <c r="J5">
-        <v>0.1820366874560904</v>
+        <v>0.07975833360401552</v>
       </c>
       <c r="K5">
-        <v>0.4489740599635184</v>
+        <v>1.444959977690957</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2101685842357952</v>
+        <v>0.3771298882119254</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.419507844680652</v>
+        <v>1.060591765115532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0783535739577701</v>
+        <v>0.2255819080376256</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2303105492105288</v>
+        <v>0.1393236955236432</v>
       </c>
       <c r="E6">
-        <v>0.1765584554168811</v>
+        <v>0.08753061719008315</v>
       </c>
       <c r="F6">
-        <v>1.099289569151317</v>
+        <v>0.5025206805125748</v>
       </c>
       <c r="G6">
-        <v>0.5373492037604848</v>
+        <v>0.2662041345568369</v>
       </c>
       <c r="H6">
-        <v>0.6874994839428439</v>
+        <v>0.2617185900792691</v>
       </c>
       <c r="I6">
-        <v>0.5242505219042983</v>
+        <v>0.2618658060209746</v>
       </c>
       <c r="J6">
-        <v>0.1820843083356998</v>
+        <v>0.07968804984583144</v>
       </c>
       <c r="K6">
-        <v>0.4458502307928143</v>
+        <v>1.435358607287839</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2093768088477646</v>
+        <v>0.3744585796876336</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.420456824143841</v>
+        <v>1.060382964977435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08193708019601331</v>
+        <v>0.236661005438549</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2311269027802325</v>
+        <v>0.1436324634534145</v>
       </c>
       <c r="E7">
-        <v>0.1766147771439641</v>
+        <v>0.08914240845892962</v>
       </c>
       <c r="F7">
-        <v>1.097380755809837</v>
+        <v>0.5063487560600919</v>
       </c>
       <c r="G7">
-        <v>0.5360429464112215</v>
+        <v>0.2679053792971047</v>
       </c>
       <c r="H7">
-        <v>0.6856989430297773</v>
+        <v>0.2607424650748342</v>
       </c>
       <c r="I7">
-        <v>0.5217101596470166</v>
+        <v>0.2569657626664368</v>
       </c>
       <c r="J7">
-        <v>0.1817621069088879</v>
+        <v>0.08018908671924052</v>
       </c>
       <c r="K7">
-        <v>0.4675176234366631</v>
+        <v>1.501979918449337</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2148751112420157</v>
+        <v>0.3930027241776486</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.413998459513053</v>
+        <v>1.062054797797558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09771948638559991</v>
+        <v>0.2854962688185054</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2349267224631149</v>
+        <v>0.1629076742910627</v>
       </c>
       <c r="E8">
-        <v>0.177043365118152</v>
+        <v>0.09652582058571113</v>
       </c>
       <c r="F8">
-        <v>1.090319289496271</v>
+        <v>0.5255689511110617</v>
       </c>
       <c r="G8">
-        <v>0.531123403183706</v>
+        <v>0.2770651087149218</v>
       </c>
       <c r="H8">
-        <v>0.6784276948164916</v>
+        <v>0.2574943382335348</v>
       </c>
       <c r="I8">
-        <v>0.5111442969953099</v>
+        <v>0.2365615021409408</v>
       </c>
       <c r="J8">
-        <v>0.1805465793184098</v>
+        <v>0.08273736965992384</v>
       </c>
       <c r="K8">
-        <v>0.5627409124664666</v>
+        <v>1.795481981426349</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2391978110071165</v>
+        <v>0.47492212603224</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.388681455346102</v>
+        <v>1.075133165788358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1285439155451229</v>
+        <v>0.3812063353771435</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2430814308972771</v>
+        <v>0.201767817633737</v>
       </c>
       <c r="E9">
-        <v>0.1785286099629602</v>
+        <v>0.1120772386277977</v>
       </c>
       <c r="F9">
-        <v>1.081362473366376</v>
+        <v>0.5724392652341663</v>
       </c>
       <c r="G9">
-        <v>0.5245172215503402</v>
+        <v>0.3016159411559087</v>
       </c>
       <c r="H9">
-        <v>0.6665886767782041</v>
+        <v>0.2552175680961852</v>
       </c>
       <c r="I9">
-        <v>0.4927393261901347</v>
+        <v>0.2011613712183538</v>
       </c>
       <c r="J9">
-        <v>0.178903624972726</v>
+        <v>0.08905782880063384</v>
       </c>
       <c r="K9">
-        <v>0.7479920436711325</v>
+        <v>2.37014463695229</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2870896399018861</v>
+        <v>0.6362007747141831</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.350477450978019</v>
+        <v>1.123245040112465</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1511047983889142</v>
+        <v>0.4516410848813166</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2494968461965499</v>
+        <v>0.2310904013711905</v>
       </c>
       <c r="E10">
-        <v>0.1800112336890436</v>
+        <v>0.1242565678779357</v>
       </c>
       <c r="F10">
-        <v>1.077761828754475</v>
+        <v>0.613286166691509</v>
       </c>
       <c r="G10">
-        <v>0.521523032960971</v>
+        <v>0.3243195672325214</v>
       </c>
       <c r="H10">
-        <v>0.659363091991807</v>
+        <v>0.2563252122495214</v>
       </c>
       <c r="I10">
-        <v>0.4806271115228782</v>
+        <v>0.1781918815468932</v>
       </c>
       <c r="J10">
-        <v>0.1781476758924256</v>
+        <v>0.09461926494493156</v>
       </c>
       <c r="K10">
-        <v>0.8831387843072207</v>
+        <v>2.792722024747405</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3223811823283356</v>
+        <v>0.7554167269360974</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.329391053467049</v>
+        <v>1.174263574318843</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1613477719853051</v>
+        <v>0.4837450568386998</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2525065639440385</v>
+        <v>0.2446271088420531</v>
       </c>
       <c r="E11">
-        <v>0.1807703778828014</v>
+        <v>0.1299843734349651</v>
       </c>
       <c r="F11">
-        <v>1.076770613755926</v>
+        <v>0.6334523147158109</v>
       </c>
       <c r="G11">
-        <v>0.5205658519559364</v>
+        <v>0.3358140561111043</v>
       </c>
       <c r="H11">
-        <v>0.65639518387691</v>
+        <v>0.2575000362050019</v>
       </c>
       <c r="I11">
-        <v>0.4754228494086679</v>
+        <v>0.1684549736820804</v>
       </c>
       <c r="J11">
-        <v>0.1779016570752816</v>
+        <v>0.0973746894294294</v>
       </c>
       <c r="K11">
-        <v>0.9444020311814825</v>
+        <v>2.98526692619518</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3384564620741699</v>
+        <v>0.8098894155929273</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.32131588675125</v>
+        <v>1.201340857729946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.16522342234002</v>
+        <v>0.4959140965368647</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.253659301349856</v>
+        <v>0.2497840876851996</v>
       </c>
       <c r="E12">
-        <v>0.1810699897956063</v>
+        <v>0.1321823405759339</v>
       </c>
       <c r="F12">
-        <v>1.076488224038926</v>
+        <v>0.6413335486114988</v>
       </c>
       <c r="G12">
-        <v>0.520261702497848</v>
+        <v>0.3403480241541104</v>
       </c>
       <c r="H12">
-        <v>0.655317150311987</v>
+        <v>0.2580473777278911</v>
       </c>
       <c r="I12">
-        <v>0.4734960767128662</v>
+        <v>0.1648749273849548</v>
       </c>
       <c r="J12">
-        <v>0.1778225601745547</v>
+        <v>0.09845282954496071</v>
       </c>
       <c r="K12">
-        <v>0.9675686362179761</v>
+        <v>3.058242731705604</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3445464682463424</v>
+        <v>0.8305584253058029</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.31847629660723</v>
+        <v>1.212191937137817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1643888754298786</v>
+        <v>0.493292695383488</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.253410461262078</v>
+        <v>0.2486720234587523</v>
       </c>
       <c r="E13">
-        <v>0.1810049236650251</v>
+        <v>0.1317076468796436</v>
       </c>
       <c r="F13">
-        <v>1.076544907829678</v>
+        <v>0.6396250183922234</v>
       </c>
       <c r="G13">
-        <v>0.5203246115416533</v>
+        <v>0.3393632672597704</v>
       </c>
       <c r="H13">
-        <v>0.6555472854620348</v>
+        <v>0.2579248416266324</v>
       </c>
       <c r="I13">
-        <v>0.47390908590571</v>
+        <v>0.1656411128242672</v>
       </c>
       <c r="J13">
-        <v>0.1778389696870093</v>
+        <v>0.09821905051201441</v>
       </c>
       <c r="K13">
-        <v>0.9625807597520293</v>
+        <v>3.042522967170925</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.34323476463247</v>
+        <v>0.8261050306903783</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.319078142032396</v>
+        <v>1.209827705084479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1616666884790021</v>
+        <v>0.4847459538572423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2526011399712189</v>
+        <v>0.2450507420639809</v>
       </c>
       <c r="E14">
-        <v>0.180794784039918</v>
+        <v>0.1301646088211328</v>
       </c>
       <c r="F14">
-        <v>1.076745518510954</v>
+        <v>0.6340957029404848</v>
       </c>
       <c r="G14">
-        <v>0.5205396601735117</v>
+        <v>0.3361833553059057</v>
       </c>
       <c r="H14">
-        <v>0.6563055746979103</v>
+        <v>0.2575429772298747</v>
       </c>
       <c r="I14">
-        <v>0.4752634513679697</v>
+        <v>0.1681582665487982</v>
       </c>
       <c r="J14">
-        <v>0.1778948678862022</v>
+        <v>0.09746267916305129</v>
       </c>
       <c r="K14">
-        <v>0.9463086204467004</v>
+        <v>2.991269312413039</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3389574396236341</v>
+        <v>0.8115889975585304</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.321077896122318</v>
+        <v>1.202221362497994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1599988537628718</v>
+        <v>0.4795124759133245</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2521071000312105</v>
+        <v>0.2428367060955878</v>
       </c>
       <c r="E15">
-        <v>0.1806676473708428</v>
+        <v>0.1292232887155116</v>
       </c>
       <c r="F15">
-        <v>1.076880503580441</v>
+        <v>0.6307412303620623</v>
       </c>
       <c r="G15">
-        <v>0.5206789805959886</v>
+        <v>0.3342595878392416</v>
       </c>
       <c r="H15">
-        <v>0.656776018740473</v>
+        <v>0.2573226017267274</v>
       </c>
       <c r="I15">
-        <v>0.4760987658174747</v>
+        <v>0.1697141890904277</v>
       </c>
       <c r="J15">
-        <v>0.1779309385986068</v>
+        <v>0.09700397204174749</v>
       </c>
       <c r="K15">
-        <v>0.936337195716618</v>
+        <v>2.959883771271848</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.336337788239959</v>
+        <v>0.8027031067348744</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.322331236407194</v>
+        <v>1.197641337264798</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1504349701413474</v>
+        <v>0.4495445250268659</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2493019822771316</v>
+        <v>0.2302099336260994</v>
       </c>
       <c r="E16">
-        <v>0.1799633227881579</v>
+        <v>0.123886183212889</v>
       </c>
       <c r="F16">
-        <v>1.077839617751359</v>
+        <v>0.612001568129358</v>
       </c>
       <c r="G16">
-        <v>0.5215937422673278</v>
+        <v>0.3235929841329011</v>
       </c>
       <c r="H16">
-        <v>0.6595634692613999</v>
+        <v>0.2562624385049901</v>
       </c>
       <c r="I16">
-        <v>0.4809733740998929</v>
+        <v>0.178842937067766</v>
       </c>
       <c r="J16">
-        <v>0.1781657224422446</v>
+        <v>0.09444392200766316</v>
       </c>
       <c r="K16">
-        <v>0.879130623554488</v>
+        <v>2.780146581257014</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3213310154929943</v>
+        <v>0.7518622204623213</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.329949325146202</v>
+        <v>1.172575319965432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1445625125328007</v>
+        <v>0.4311782743290848</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2476044439739553</v>
+        <v>0.2225161813112919</v>
       </c>
       <c r="E17">
-        <v>0.1795529069170421</v>
+        <v>0.1206614359041822</v>
       </c>
       <c r="F17">
-        <v>1.078593621236138</v>
+        <v>0.6009229481900675</v>
       </c>
       <c r="G17">
-        <v>0.5222586865331991</v>
+        <v>0.317357486217702</v>
       </c>
       <c r="H17">
-        <v>0.6613551742229618</v>
+        <v>0.2557880455342882</v>
       </c>
       <c r="I17">
-        <v>0.4840420834388661</v>
+        <v>0.1846287766968855</v>
       </c>
       <c r="J17">
-        <v>0.1783348149907411</v>
+        <v>0.09293275840425963</v>
       </c>
       <c r="K17">
-        <v>0.843979975019181</v>
+        <v>2.669976224216583</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3121299562728339</v>
+        <v>0.7207393082088132</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.335011450496836</v>
+        <v>1.158217491445953</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1411829547995609</v>
+        <v>0.4206202217994814</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2466366661318347</v>
+        <v>0.2181093905103921</v>
       </c>
       <c r="E18">
-        <v>0.1793248203832398</v>
+        <v>0.1188241539264325</v>
       </c>
       <c r="F18">
-        <v>1.079088180322692</v>
+        <v>0.5946989065277464</v>
       </c>
       <c r="G18">
-        <v>0.5226792496963242</v>
+        <v>0.3138799308563733</v>
       </c>
       <c r="H18">
-        <v>0.6624157474776169</v>
+        <v>0.2555779605560744</v>
       </c>
       <c r="I18">
-        <v>0.4858358916104653</v>
+        <v>0.188023361086783</v>
       </c>
       <c r="J18">
-        <v>0.1784412846674712</v>
+        <v>0.09208465666597476</v>
       </c>
       <c r="K18">
-        <v>0.8237420363846581</v>
+        <v>2.606637367304359</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3068397472005486</v>
+        <v>0.7028604599556516</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.338065843578704</v>
+        <v>1.150320773107978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1400383802430269</v>
+        <v>0.417046344704147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.246310473756651</v>
+        <v>0.216620422643075</v>
       </c>
       <c r="E19">
-        <v>0.1792489648692488</v>
+        <v>0.1182050289172736</v>
       </c>
       <c r="F19">
-        <v>1.079266086222134</v>
+        <v>0.5926164899291209</v>
       </c>
       <c r="G19">
-        <v>0.5228281868885887</v>
+        <v>0.3127208025498263</v>
       </c>
       <c r="H19">
-        <v>0.6627799982816924</v>
+        <v>0.2555174347052471</v>
       </c>
       <c r="I19">
-        <v>0.4864481846065019</v>
+        <v>0.1891840288766398</v>
       </c>
       <c r="J19">
-        <v>0.1784789159003353</v>
+        <v>0.09180105680449202</v>
       </c>
       <c r="K19">
-        <v>0.8168863901321686</v>
+        <v>2.585196229926225</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3050489275604633</v>
+        <v>0.6968106084890309</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.339124529122003</v>
+        <v>1.147707959211743</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1451878416084611</v>
+        <v>0.4331327795726594</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2477842604057798</v>
+        <v>0.2233332671163595</v>
       </c>
       <c r="E20">
-        <v>0.1795957714019281</v>
+        <v>0.1210028895117077</v>
       </c>
       <c r="F20">
-        <v>1.078507056088597</v>
+        <v>0.6020868407999203</v>
       </c>
       <c r="G20">
-        <v>0.5221839577096858</v>
+        <v>0.318009895742577</v>
       </c>
       <c r="H20">
-        <v>0.6611613361914124</v>
+        <v>0.2558320065691788</v>
       </c>
       <c r="I20">
-        <v>0.4837124366176022</v>
+        <v>0.1840059252680302</v>
       </c>
       <c r="J20">
-        <v>0.1783158614382856</v>
+        <v>0.09309142652067948</v>
       </c>
       <c r="K20">
-        <v>0.8477239242322696</v>
+        <v>2.681700998069545</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3131092207544555</v>
+        <v>0.7240500474020735</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.334457799123953</v>
+        <v>1.159708200258677</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.162466348045001</v>
+        <v>0.487255990071688</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2528385046844761</v>
+        <v>0.2461135403705867</v>
       </c>
       <c r="E21">
-        <v>0.1808561779561089</v>
+        <v>0.1306170334416414</v>
       </c>
       <c r="F21">
-        <v>1.076684071640635</v>
+        <v>0.6357130146678927</v>
       </c>
       <c r="G21">
-        <v>0.5204749118236407</v>
+        <v>0.3371123413560753</v>
       </c>
       <c r="H21">
-        <v>0.6560816026808709</v>
+        <v>0.2576523097331744</v>
       </c>
       <c r="I21">
-        <v>0.4748644479738582</v>
+        <v>0.1674159716912005</v>
       </c>
       <c r="J21">
-        <v>0.1778780675718323</v>
+        <v>0.09768388246256166</v>
       </c>
       <c r="K21">
-        <v>0.9510890345402743</v>
+        <v>3.006321884113873</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3402137247817905</v>
+        <v>0.8158515288497838</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.320484594184904</v>
+        <v>1.204438972425208</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1737404232650874</v>
+        <v>0.5226998635395432</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2562176010562212</v>
+        <v>0.2611832693258265</v>
       </c>
       <c r="E22">
-        <v>0.1817506727918961</v>
+        <v>0.1370703325550622</v>
       </c>
       <c r="F22">
-        <v>1.076034480506991</v>
+        <v>0.6591248710176032</v>
       </c>
       <c r="G22">
-        <v>0.5196978929992184</v>
+        <v>0.3506602857841727</v>
       </c>
       <c r="H22">
-        <v>0.6530289314921305</v>
+        <v>0.2594422612372682</v>
       </c>
       <c r="I22">
-        <v>0.4693380656440631</v>
+        <v>0.1572001682109434</v>
       </c>
       <c r="J22">
-        <v>0.1776739222752042</v>
+        <v>0.1008888654477786</v>
       </c>
       <c r="K22">
-        <v>1.018454260152339</v>
+        <v>3.218858490345269</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3579433401748418</v>
+        <v>0.876093822138877</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.312624779731863</v>
+        <v>1.237176842615668</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1677250066802571</v>
+        <v>0.5037752654044994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2544072086683542</v>
+        <v>0.2531227999088088</v>
       </c>
       <c r="E23">
-        <v>0.1812668033656308</v>
+        <v>0.1336098364113525</v>
       </c>
       <c r="F23">
-        <v>1.07633161447508</v>
+        <v>0.6464923439736054</v>
       </c>
       <c r="G23">
-        <v>0.5200814679955101</v>
+        <v>0.3433274996324229</v>
       </c>
       <c r="H23">
-        <v>0.6546337579433725</v>
+        <v>0.2584299277712176</v>
       </c>
       <c r="I23">
-        <v>0.4722641436590056</v>
+        <v>0.16259356629104</v>
       </c>
       <c r="J23">
-        <v>0.1777753801040944</v>
+        <v>0.09915888539546103</v>
       </c>
       <c r="K23">
-        <v>0.9825180176620449</v>
+        <v>3.105382680408354</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3484794370807833</v>
+        <v>0.8439166204098072</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.316703233694682</v>
+        <v>1.219369130319279</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1449051409160944</v>
+        <v>0.4322491450127188</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.247702939973081</v>
+        <v>0.2229638115728108</v>
       </c>
       <c r="E24">
-        <v>0.1795763678608431</v>
+        <v>0.1208484665699601</v>
       </c>
       <c r="F24">
-        <v>1.078546001953335</v>
+        <v>0.6015601939350859</v>
       </c>
       <c r="G24">
-        <v>0.5222176233853659</v>
+        <v>0.3177146081445699</v>
       </c>
       <c r="H24">
-        <v>0.6612488753631851</v>
+        <v>0.2558119370926448</v>
       </c>
       <c r="I24">
-        <v>0.4838613778510572</v>
+        <v>0.1842873042378903</v>
       </c>
       <c r="J24">
-        <v>0.178324401506984</v>
+        <v>0.0930196284037379</v>
       </c>
       <c r="K24">
-        <v>0.8460313761454756</v>
+        <v>2.676400230583084</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3126664964930299</v>
+        <v>0.7225532187109494</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.334707656028229</v>
+        <v>1.159033139456994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1202194636876754</v>
+        <v>0.3553052358827529</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2408005497037919</v>
+        <v>0.1911290048321348</v>
       </c>
       <c r="E25">
-        <v>0.1780579548307379</v>
+        <v>0.1077453664013994</v>
       </c>
       <c r="F25">
-        <v>1.083262105690906</v>
+        <v>0.558695491874694</v>
       </c>
       <c r="G25">
-        <v>0.5259782353922162</v>
+        <v>0.2942041172010192</v>
       </c>
       <c r="H25">
-        <v>0.6695326579336154</v>
+        <v>0.2553668771214035</v>
       </c>
       <c r="I25">
-        <v>0.4974706802011077</v>
+        <v>0.2102214754172431</v>
       </c>
       <c r="J25">
-        <v>0.1792688341540796</v>
+        <v>0.08719521645072348</v>
       </c>
       <c r="K25">
-        <v>0.6980409220084312</v>
+        <v>2.214688111561827</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2741141460097083</v>
+        <v>0.5924691541415825</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.359586973511469</v>
+        <v>1.107627360051396</v>
       </c>
     </row>
   </sheetData>
